--- a/BalanceSheet/LUV_bal.xlsx
+++ b/BalanceSheet/LUV_bal.xlsx
@@ -1783,19 +1783,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-66000000.0</v>
+        <v>350000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>296000000.0</v>
+        <v>272000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>25000000.0</v>
+        <v>315000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1201000000.0</v>
+        <v>336000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1291000000.0</v>
+        <v>431000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1574000000.0</v>
@@ -2724,19 +2724,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>5000000.0</v>
+        <v>1660000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-188000000.0</v>
+        <v>1634000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-298000000.0</v>
+        <v>1824000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-181000000.0</v>
+        <v>2114000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>2278000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>2364000000.0</v>
